--- a/arquitectura.xlsx
+++ b/arquitectura.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-1\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612FDA7F-1F41-4C03-A95E-B61A825B1A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AF74A-A73D-4AC0-B5D1-88DED46F7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{77923D6A-DAA2-4862-997C-5E8704293F98}"/>
   </bookViews>
   <sheets>
     <sheet name="arquitectura" sheetId="1" r:id="rId1"/>
-    <sheet name="Postman" sheetId="2" r:id="rId2"/>
+    <sheet name="github" sheetId="3" r:id="rId2"/>
+    <sheet name="Postman" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>Code</t>
   </si>
@@ -369,6 +370,9 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>https://github.com/adrimarcrtsvl50/Prueba/tree/main</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1053,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA512582-4CDD-46C2-80C5-81082309040D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E96E1-278E-4970-888A-59B19D8E7433}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B12"/>
     </sheetView>
   </sheetViews>
